--- a/export/combined/conditionalTable.xlsx
+++ b/export/combined/conditionalTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.3\combined\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.4\Combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="14685"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="27870" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="pBin" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.3\pBin.csv" thousands=" " semicolon="1">
+    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.4\pBin.csv" thousands=" " semicolon="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -51,7 +51,7 @@
     </textPr>
   </connection>
   <connection id="2" name="pStage" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.3\pStage.csv" thousands=" " semicolon="1">
+    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.4\pStage.csv" thousands=" " semicolon="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -70,7 +70,7 @@
     </textPr>
   </connection>
   <connection id="3" name="valBin" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.3\valBin.csv" thousands=" " semicolon="1">
+    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.4\valBin.csv" thousands=" " semicolon="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -89,7 +89,7 @@
     </textPr>
   </connection>
   <connection id="4" name="valStage" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.3\valStage.csv" thousands=" " semicolon="1">
+    <textPr codePage="850" sourceFile="D:\Dropbox\WorkSpace\2017-04-05_divDyn\ddPhanero\export\0.4\valStage.csv" thousands=" " semicolon="1">
       <textFields count="13">
         <textField/>
         <textField/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>rawPC_10my</t>
   </si>
@@ -287,9 +287,6 @@
     <t>diversity and lagged extinction</t>
   </si>
   <si>
-    <t>diversity and lagged origination</t>
-  </si>
-  <si>
     <t>number of mass extinctions</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>norm. orig. rates with  durations</t>
+  </si>
+  <si>
+    <t>extinction and lagged origination</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +369,9 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,19 +437,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pBin" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="valStage" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="valStage" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="valBin" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="valBin" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pStage" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pStage" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pBin" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,19 +718,19 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="4" customWidth="1"/>
     <col min="6" max="9" width="10" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="4" customWidth="1"/>
     <col min="14" max="14" width="10" style="4" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -736,64 +739,64 @@
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
@@ -886,809 +889,809 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-0.04</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-0.18</v>
+      </c>
+      <c r="I5" s="8">
         <v>-0.06</v>
       </c>
-      <c r="D5" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-0.16</v>
-      </c>
-      <c r="I5" s="5">
-        <v>-0.06</v>
-      </c>
-      <c r="J5" s="5">
-        <v>-0.13</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>-0.09</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
+      <c r="J5" s="8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K5" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="5">
-        <v>-0.49</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="8">
+        <v>-0.43</v>
+      </c>
+      <c r="D6" s="8">
         <v>-0.44</v>
       </c>
-      <c r="E6" s="5">
-        <v>-0.34</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-0.3</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="E6" s="8">
+        <v>-0.35</v>
+      </c>
+      <c r="F6" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="G6" s="8">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="I6" s="5">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="J6" s="5">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="K6" s="5">
-        <v>-0.47</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="I6" s="8">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="K6" s="8">
+        <v>-0.41</v>
+      </c>
+      <c r="L6" s="8">
         <v>-0.46</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="8">
         <v>-0.32</v>
       </c>
-      <c r="N6" s="5">
-        <v>-0.34</v>
+      <c r="N6" s="8">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-0.37</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="8">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="D8" s="8">
         <v>-0.42</v>
       </c>
-      <c r="E8" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="8">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-0.16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-0.35</v>
+      </c>
+      <c r="H8" s="8">
+        <v>-0.41</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-0.27</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-0.25</v>
+      </c>
+      <c r="K8" s="8">
+        <v>-0.21</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-0.36</v>
+      </c>
+      <c r="M8" s="8">
         <v>-0.19</v>
       </c>
-      <c r="G8" s="5">
-        <v>-0.36</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-0.4</v>
-      </c>
-      <c r="I8" s="5">
-        <v>-0.25</v>
-      </c>
-      <c r="J8" s="5">
-        <v>-0.27</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="L8" s="5">
-        <v>-0.35</v>
-      </c>
-      <c r="M8" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="N8" s="5">
-        <v>-0.13</v>
+      <c r="N8" s="8">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="5">
+      <c r="H9" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K9" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E9" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.51</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0.56999999999999995</v>
+      <c r="L9" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.54</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>0.3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>0.38</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="I10" s="8">
         <v>0.42</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0.3</v>
+      <c r="J10" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="F11" s="8">
         <v>0.45</v>
       </c>
-      <c r="E11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="G11" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L11" s="8">
         <v>0.43</v>
       </c>
-      <c r="I11" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0.28999999999999998</v>
+      <c r="M11" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.45</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>0.24</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="N12" s="8">
         <v>0.24</v>
       </c>
-      <c r="E12" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0.26</v>
-      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="5">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8">
         <v>5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="8">
         <v>3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="8">
         <v>4</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
         <v>3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="J17" s="8">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="5">
-        <v>4</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="L17" s="8">
         <v>3</v>
       </c>
-      <c r="J17" s="5">
-        <v>3</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="M17" s="8">
         <v>2</v>
       </c>
-      <c r="L17" s="5">
-        <v>3</v>
-      </c>
-      <c r="M17" s="5">
+      <c r="N17" s="8">
         <v>2</v>
       </c>
-      <c r="N17" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="E18" s="5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I18" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0.185</v>
-      </c>
-      <c r="M18" s="5">
-        <v>0.438</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0.39100000000000001</v>
+      <c r="C18" s="8">
+        <v>0.159</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.432</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N19" s="5">
-        <v>8.0000000000000002E-3</v>
+      <c r="C19" s="8">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.628</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="C20" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="F20" s="8">
         <v>0.15</v>
       </c>
-      <c r="F20" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="G20" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="8">
         <v>0.25</v>
       </c>
-      <c r="J20" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0.35</v>
+      <c r="J20" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.21</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I21" s="8">
         <v>0.25</v>
       </c>
-      <c r="F21" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="J21" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="L21" s="8">
         <v>0.2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="N21" s="8">
         <v>0.26</v>
       </c>
-      <c r="N21" s="5">
-        <v>0.27</v>
-      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5">
-        <v>-0.04</v>
-      </c>
-      <c r="D22" s="5">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="D22" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E22" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="8">
         <v>0.1</v>
       </c>
-      <c r="G22" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="H22" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="I22" s="8">
         <v>0.42</v>
       </c>
-      <c r="K22" s="5">
-        <v>-0.16</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.04</v>
+      <c r="J22" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="K22" s="8">
+        <v>-0.19</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
@@ -1769,768 +1772,768 @@
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>0.23</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="H27" s="8">
         <v>0.15</v>
       </c>
-      <c r="E27" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="I27" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="L27" s="8">
         <v>0.16</v>
       </c>
-      <c r="J27" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="L27" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.27</v>
+      <c r="M27" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="5">
-        <v>-0.45</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="8">
+        <v>-0.46</v>
+      </c>
+      <c r="D28" s="8">
         <v>-0.35</v>
       </c>
-      <c r="E28" s="5">
-        <v>-0.34</v>
-      </c>
-      <c r="F28" s="5">
-        <v>-0.17</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="E28" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="F28" s="8">
+        <v>-0.24</v>
+      </c>
+      <c r="G28" s="8">
         <v>-0.64</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="8">
         <v>-0.53</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J28" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="K28" s="8">
+        <v>-0.54</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="M28" s="8">
+        <v>-0.44</v>
+      </c>
+      <c r="N28" s="8">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-0.52</v>
+      </c>
+      <c r="D30" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="E30" s="8">
+        <v>-0.41</v>
+      </c>
+      <c r="F30" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="G30" s="8">
+        <v>-0.66</v>
+      </c>
+      <c r="H30" s="8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I30" s="8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J30" s="8">
+        <v>-0.52</v>
+      </c>
+      <c r="K30" s="8">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="J28" s="5">
-        <v>-0.42</v>
-      </c>
-      <c r="K28" s="5">
-        <v>-0.54</v>
-      </c>
-      <c r="L28" s="5">
-        <v>-0.51</v>
-      </c>
-      <c r="M28" s="5">
-        <v>-0.46</v>
-      </c>
-      <c r="N28" s="5">
-        <v>-0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="K29" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="5">
-        <v>-0.52</v>
-      </c>
-      <c r="D30" s="5">
-        <v>-0.51</v>
-      </c>
-      <c r="E30" s="5">
-        <v>-0.4</v>
-      </c>
-      <c r="F30" s="5">
-        <v>-0.31</v>
-      </c>
-      <c r="G30" s="5">
-        <v>-0.66</v>
-      </c>
-      <c r="H30" s="5">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="I30" s="5">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="J30" s="5">
-        <v>-0.51</v>
-      </c>
-      <c r="K30" s="5">
-        <v>-0.59</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="L30" s="8">
         <v>-0.5</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="8">
+        <v>-0.43</v>
+      </c>
+      <c r="N30" s="8">
         <v>-0.41</v>
       </c>
-      <c r="N30" s="5">
-        <v>-0.39</v>
-      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>0.52</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="E31" s="8">
         <v>0.39</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="L31" s="8">
         <v>0.39</v>
       </c>
-      <c r="F31" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="M31" s="5">
+      <c r="M31" s="8">
         <v>0.39</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="8">
         <v>0.37</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="C32" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="J32" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F32" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="K32" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="8">
         <v>0.1</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="8">
         <v>0.09</v>
       </c>
-      <c r="N32" s="5">
-        <v>0.11</v>
+      <c r="N32" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>0.44</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="8">
         <v>0.36</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="H33" s="8">
         <v>0.39</v>
       </c>
-      <c r="F33" s="5">
+      <c r="I33" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="L33" s="8">
         <v>0.35</v>
       </c>
-      <c r="G33" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="K33" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="M33" s="8">
         <v>0.36</v>
       </c>
-      <c r="M33" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0.38</v>
+      <c r="N33" s="8">
+        <v>0.36</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="8">
         <v>0.06</v>
       </c>
-      <c r="D34" s="5">
+      <c r="I34" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="N34" s="8">
         <v>0.05</v>
       </c>
-      <c r="E34" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0.06</v>
-      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="5" t="s">
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="5" t="s">
+      <c r="C36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="5" t="s">
+      <c r="C37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N38" s="5" t="s">
+      <c r="C38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="5">
+        <v>58</v>
+      </c>
+      <c r="C39" s="8">
         <v>4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="8">
         <v>3</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="8">
         <v>5</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>3</v>
+      </c>
+      <c r="H39" s="8">
+        <v>3</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3</v>
+      </c>
+      <c r="J39" s="8">
         <v>4</v>
       </c>
-      <c r="G39" s="5">
+      <c r="K39" s="8">
         <v>3</v>
       </c>
-      <c r="H39" s="5">
+      <c r="L39" s="8">
         <v>3</v>
       </c>
-      <c r="I39" s="5">
+      <c r="M39" s="8">
+        <v>6</v>
+      </c>
+      <c r="N39" s="8">
         <v>3</v>
       </c>
-      <c r="J39" s="5">
-        <v>4</v>
-      </c>
-      <c r="K39" s="5">
-        <v>3</v>
-      </c>
-      <c r="L39" s="5">
-        <v>3</v>
-      </c>
-      <c r="M39" s="5">
-        <v>6</v>
-      </c>
-      <c r="N39" s="5">
-        <v>3</v>
-      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="5">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F40" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G40" s="5">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="C40" s="8">
+        <v>0.628</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.104</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="L40" s="5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="M40" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="N40" s="5">
-        <v>3.0000000000000001E-3</v>
+      <c r="J40" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="5">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D41" s="5">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="C41" s="8">
+        <v>0.502</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="5">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="F41" s="8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I41" s="8">
         <v>1E-3</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="5">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="M41" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="N41" s="5">
-        <v>1.9E-2</v>
+      <c r="N41" s="8">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <v>0.39</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="8">
         <v>0.3</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="F42" s="8">
         <v>0.21</v>
       </c>
-      <c r="F42" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="G42" s="8">
         <v>0.34</v>
       </c>
-      <c r="H42" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="H42" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="I42" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="8">
         <v>0.05</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="8">
         <v>0.52</v>
       </c>
-      <c r="L42" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0.28000000000000003</v>
+      <c r="L42" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.27</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C43" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D43" s="8">
         <v>0.41</v>
       </c>
-      <c r="E43" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="E43" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="G43" s="8">
         <v>0.45</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="8">
         <v>0.12</v>
       </c>
-      <c r="I43" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="I43" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="J43" s="8">
         <v>0.13</v>
       </c>
-      <c r="K43" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0.3</v>
+      <c r="K43" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.31</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E44" s="5">
+        <v>61</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="F44" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="L44" s="8">
         <v>0.17</v>
       </c>
-      <c r="F44" s="5">
-        <v>-0.02</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="M44" s="5">
+      <c r="M44" s="8">
         <v>0.13</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="8">
         <v>-0.09</v>
       </c>
     </row>
@@ -2585,40 +2588,40 @@
         <v>46</v>
       </c>
       <c r="C54" s="6">
-        <v>0.67102072750272901</v>
+        <v>0.95385810008911098</v>
       </c>
       <c r="D54" s="6">
-        <v>0.80489066408162102</v>
+        <v>0.77291104658910204</v>
       </c>
       <c r="E54" s="6">
-        <v>0.67017402310158403</v>
+        <v>0.71131891500429301</v>
       </c>
       <c r="F54" s="6">
-        <v>0.99853915665051496</v>
+        <v>0.91995624984694702</v>
       </c>
       <c r="G54" s="6">
-        <v>0.67996849829219996</v>
+        <v>0.62987394661419605</v>
       </c>
       <c r="H54" s="6">
-        <v>0.27920256266226501</v>
+        <v>0.23017356744838999</v>
       </c>
       <c r="I54" s="6">
-        <v>0.67489265663789799</v>
+        <v>0.70328466914194998</v>
       </c>
       <c r="J54" s="6">
-        <v>0.38317994621597201</v>
+        <v>0.34723647617980002</v>
       </c>
       <c r="K54" s="6">
-        <v>0.99156080192519502</v>
+        <v>0.61826959625118805</v>
       </c>
       <c r="L54" s="6">
-        <v>0.532207851200587</v>
+        <v>0.50539560127592598</v>
       </c>
       <c r="M54" s="6">
-        <v>0.51620932090806604</v>
+        <v>0.46663118043631102</v>
       </c>
       <c r="N54" s="6">
-        <v>0.97546156014685903</v>
+        <v>0.89705758107705902</v>
       </c>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2627,124 +2630,124 @@
         <v>47</v>
       </c>
       <c r="C55" s="6">
-        <v>4.7405226456321198E-4</v>
+        <v>2.8567866999348098E-3</v>
       </c>
       <c r="D55" s="6">
-        <v>2.0263201297396798E-3</v>
+        <v>2.04933661096828E-3</v>
       </c>
       <c r="E55" s="6">
-        <v>1.8133633791414101E-2</v>
+        <v>1.7178976010468899E-2</v>
       </c>
       <c r="F55" s="6">
-        <v>4.0761374057746297E-2</v>
+        <v>3.2953484264851299E-2</v>
       </c>
       <c r="G55" s="7">
-        <v>5.5189199325610301E-5</v>
+        <v>5.5955509670545001E-5</v>
       </c>
       <c r="H55" s="7">
-        <v>2.8819991081650301E-5</v>
+        <v>3.4050278703985997E-5</v>
       </c>
       <c r="I55" s="7">
-        <v>7.3640281316102106E-5</v>
+        <v>5.4317418879665798E-5</v>
       </c>
       <c r="J55" s="7">
-        <v>6.4455841975635106E-5</v>
+        <v>2.9649834332312199E-5</v>
       </c>
       <c r="K55" s="6">
-        <v>9.21861900521508E-4</v>
+        <v>4.4401629735131903E-3</v>
       </c>
       <c r="L55" s="6">
-        <v>1.3588176937256199E-3</v>
+        <v>1.3158408516195301E-3</v>
       </c>
       <c r="M55" s="6">
-        <v>2.6910129925688999E-2</v>
+        <v>2.9599168784562101E-2</v>
       </c>
       <c r="N55" s="6">
-        <v>1.88425247592015E-2</v>
+        <v>1.7925485107177602E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="6">
-        <v>9.9218608708862996E-2</v>
+        <v>4.6636633285154799E-2</v>
       </c>
       <c r="D56" s="6">
-        <v>0.165058048440864</v>
+        <v>0.17606882775806201</v>
       </c>
       <c r="E56" s="6">
-        <v>2.5858221819320699E-2</v>
+        <v>6.1046103486049698E-2</v>
       </c>
       <c r="F56" s="6">
-        <v>0.110128664134978</v>
+        <v>4.7863925128523201E-2</v>
       </c>
       <c r="G56" s="6">
-        <v>0.12895833242361701</v>
+        <v>0.129278703046704</v>
       </c>
       <c r="H56" s="6">
-        <v>0.46916263880362102</v>
+        <v>0.51193008788246197</v>
       </c>
       <c r="I56" s="6">
-        <v>0.217970826712237</v>
+        <v>0.24467988485198799</v>
       </c>
       <c r="J56" s="6">
-        <v>0.50646398319990305</v>
+        <v>0.27842394754278599</v>
       </c>
       <c r="K56" s="6">
-        <v>7.1545959861302605E-2</v>
+        <v>3.6120975901526901E-2</v>
       </c>
       <c r="L56" s="6">
-        <v>0.25349450627912901</v>
+        <v>0.29557801121358601</v>
       </c>
       <c r="M56" s="6">
-        <v>8.0794685953193807E-2</v>
+        <v>0.17580067190610699</v>
       </c>
       <c r="N56" s="6">
-        <v>0.242449538107183</v>
+        <v>0.12704860055851799</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6">
-        <v>1.06843141255267E-2</v>
+        <v>5.28100426827562E-2</v>
       </c>
       <c r="D57" s="6">
-        <v>3.7201920905778701E-3</v>
+        <v>3.71460626884729E-3</v>
       </c>
       <c r="E57" s="6">
-        <v>0.182062042291083</v>
+        <v>5.2236126720371E-2</v>
       </c>
       <c r="F57" s="6">
-        <v>0.20737237189493299</v>
+        <v>0.28237508306738102</v>
       </c>
       <c r="G57" s="6">
-        <v>1.45593818401545E-2</v>
+        <v>1.6198123176251099E-2</v>
       </c>
       <c r="H57" s="6">
-        <v>7.1435688885811604E-3</v>
+        <v>5.5802417289291997E-3</v>
       </c>
       <c r="I57" s="6">
-        <v>9.9131232461464103E-2</v>
+        <v>6.8329539786006699E-2</v>
       </c>
       <c r="J57" s="6">
-        <v>6.7131893884392196E-2</v>
+        <v>0.104650183009283</v>
       </c>
       <c r="K57" s="6">
-        <v>6.1825846169726001E-2</v>
+        <v>0.15512287044144599</v>
       </c>
       <c r="L57" s="6">
-        <v>1.6743834937069001E-2</v>
+        <v>1.36731461840568E-2</v>
       </c>
       <c r="M57" s="6">
-        <v>0.42834987185161899</v>
+        <v>0.204540117570429</v>
       </c>
       <c r="N57" s="6">
-        <v>0.36471200736329801</v>
+        <v>0.48005277115746597</v>
       </c>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2752,41 +2755,41 @@
       <c r="B58" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="6">
-        <v>1.36323814942707E-4</v>
+      <c r="C58" s="7">
+        <v>5.6038094663903297E-5</v>
       </c>
       <c r="D58" s="7">
-        <v>3.7677367044943503E-5</v>
+        <v>3.7848427835122799E-5</v>
       </c>
       <c r="E58" s="7">
-        <v>1.21304250880251E-5</v>
+        <v>2.08228279230897E-5</v>
       </c>
       <c r="F58" s="6">
-        <v>3.8466416121756599E-4</v>
+        <v>4.9526806638888103E-4</v>
       </c>
       <c r="G58" s="7">
-        <v>1.24441066018735E-4</v>
+        <v>1.17566858960448E-4</v>
       </c>
       <c r="H58" s="7">
-        <v>1.17818846945986E-5</v>
+        <v>2.0207827596782901E-5</v>
       </c>
       <c r="I58" s="7">
-        <v>8.9077710593744502E-6</v>
+        <v>1.44289912753259E-5</v>
       </c>
       <c r="J58" s="7">
-        <v>6.4958769004899294E-5</v>
-      </c>
-      <c r="K58" s="6">
-        <v>1.13012813796772E-4</v>
+        <v>1.3870119461449401E-4</v>
+      </c>
+      <c r="K58" s="7">
+        <v>3.8714529622310203E-5</v>
       </c>
       <c r="L58" s="7">
-        <v>1.12667317674005E-5</v>
+        <v>2.5487535529725202E-5</v>
       </c>
       <c r="M58" s="7">
-        <v>2.08606183903066E-6</v>
+        <v>3.37787806608923E-6</v>
       </c>
       <c r="N58" s="7">
-        <v>4.1986095869010302E-5</v>
+        <v>1.20488195095739E-4</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2795,40 +2798,40 @@
         <v>49</v>
       </c>
       <c r="C59" s="6">
-        <v>6.3044228258950993E-2</v>
+        <v>7.19499924498649E-2</v>
       </c>
       <c r="D59" s="6">
-        <v>1.9123859236567699E-2</v>
+        <v>1.8831928231824099E-2</v>
       </c>
       <c r="E59" s="6">
-        <v>9.1383862514652896E-3</v>
+        <v>1.3084247149160099E-2</v>
       </c>
       <c r="F59" s="6">
-        <v>0.13940728394841301</v>
+        <v>0.16411751098892199</v>
       </c>
       <c r="G59" s="6">
-        <v>8.1342713332826805E-2</v>
+        <v>8.2066084117630597E-2</v>
       </c>
       <c r="H59" s="6">
-        <v>4.6681642839327703E-3</v>
+        <v>6.0685048696911296E-3</v>
       </c>
       <c r="I59" s="6">
-        <v>6.3771567659445597E-3</v>
+        <v>9.4560252715772397E-3</v>
       </c>
       <c r="J59" s="6">
-        <v>3.05885415527428E-2</v>
+        <v>5.3820902166533902E-2</v>
       </c>
       <c r="K59" s="6">
-        <v>8.4266505868154803E-2</v>
+        <v>9.5969175314668906E-2</v>
       </c>
       <c r="L59" s="6">
-        <v>1.1051686669924799E-2</v>
+        <v>2.1681299188958399E-2</v>
       </c>
       <c r="M59" s="6">
-        <v>6.2071546255361197E-3</v>
+        <v>9.2564072278078693E-3</v>
       </c>
       <c r="N59" s="6">
-        <v>6.3044228258950993E-2</v>
+        <v>0.12780445910566901</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2837,40 +2840,40 @@
         <v>50</v>
       </c>
       <c r="C60" s="6">
-        <v>5.4592531421848104E-4</v>
+        <v>1.7491040772137E-4</v>
       </c>
       <c r="D60" s="6">
-        <v>2.2508634875284101E-3</v>
+        <v>2.6649280104071799E-3</v>
       </c>
       <c r="E60" s="6">
-        <v>5.4000832714873705E-4</v>
+        <v>1.31593938610066E-3</v>
       </c>
       <c r="F60" s="6">
-        <v>6.2821583152931806E-2</v>
+        <v>2.11447673023028E-3</v>
       </c>
       <c r="G60" s="6">
-        <v>1.23360167481787E-4</v>
+        <v>1.2498474966976501E-4</v>
       </c>
       <c r="H60" s="6">
-        <v>4.02606240712991E-3</v>
+        <v>3.39411209382833E-3</v>
       </c>
       <c r="I60" s="6">
-        <v>3.47860528207798E-4</v>
+        <v>1.1163444564850401E-3</v>
       </c>
       <c r="J60" s="6">
-        <v>5.0987230022669803E-3</v>
-      </c>
-      <c r="K60" s="6">
-        <v>2.4384889334946701E-4</v>
+        <v>1.61294221827068E-3</v>
+      </c>
+      <c r="K60" s="7">
+        <v>8.2675679713346904E-5</v>
       </c>
       <c r="L60" s="6">
-        <v>3.1650427541403E-3</v>
+        <v>3.3075396808237801E-3</v>
       </c>
       <c r="M60" s="6">
-        <v>2.1816620029556399E-4</v>
+        <v>7.1518950761865997E-4</v>
       </c>
       <c r="N60" s="6">
-        <v>5.03157398012372E-2</v>
+        <v>1.97889607918144E-3</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2879,40 +2882,40 @@
         <v>51</v>
       </c>
       <c r="C61" s="6">
-        <v>0.15294071168236401</v>
+        <v>0.15216437439788799</v>
       </c>
       <c r="D61" s="6">
-        <v>0.14605791766593901</v>
+        <v>0.16950453629700299</v>
       </c>
       <c r="E61" s="6">
-        <v>0.18643373240597</v>
+        <v>0.162892283351181</v>
       </c>
       <c r="F61" s="6">
-        <v>0.16866751449515499</v>
+        <v>0.17118761742426999</v>
       </c>
       <c r="G61" s="6">
-        <v>6.6248951989550095E-2</v>
+        <v>6.6864040296386901E-2</v>
       </c>
       <c r="H61" s="6">
-        <v>9.8175393495592206E-2</v>
+        <v>8.9580426215009806E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>6.2068572951736199E-2</v>
+        <v>6.9582153865592397E-2</v>
       </c>
       <c r="J61" s="6">
-        <v>5.9964649045855301E-2</v>
+        <v>6.0722993547306099E-2</v>
       </c>
       <c r="K61" s="6">
-        <v>0.113484081916663</v>
+        <v>0.12848627479265701</v>
       </c>
       <c r="L61" s="6">
-        <v>0.20453929760540199</v>
+        <v>0.211331091376492</v>
       </c>
       <c r="M61" s="6">
-        <v>0.11950995663129101</v>
+        <v>0.129514123121132</v>
       </c>
       <c r="N61" s="6">
-        <v>0.115992424397723</v>
+        <v>0.13868248817418299</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3089,7 @@
     <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="6">
         <v>2E-3</v>
@@ -3131,40 +3134,40 @@
         <v>54</v>
       </c>
       <c r="C67" s="6">
-        <v>0.13896341127464101</v>
+        <v>0.158776692160355</v>
       </c>
       <c r="D67" s="6">
-        <v>0.38389338265754203</v>
+        <v>0.48865836285617698</v>
       </c>
       <c r="E67" s="6">
-        <v>5.2695719037937502E-2</v>
+        <v>4.9245285295229903E-2</v>
       </c>
       <c r="F67" s="6">
-        <v>0.68440222516084703</v>
+        <v>0.65338796045289704</v>
       </c>
       <c r="G67" s="6">
-        <v>8.2691637499253901E-2</v>
+        <v>0.118950296713419</v>
       </c>
       <c r="H67" s="6">
-        <v>4.3762683851281799E-2</v>
+        <v>2.8726077840304599E-2</v>
       </c>
       <c r="I67" s="6">
-        <v>8.3112137623921903E-2</v>
+        <v>5.5996531038147203E-2</v>
       </c>
       <c r="J67" s="6">
-        <v>8.5314980195384596E-2</v>
+        <v>6.2420678178829903E-2</v>
       </c>
       <c r="K67" s="6">
-        <v>0.51575406208847496</v>
+        <v>0.70757937877490196</v>
       </c>
       <c r="L67" s="6">
-        <v>0.18542351784950101</v>
+        <v>0.38632076178292901</v>
       </c>
       <c r="M67" s="6">
-        <v>0.43835720666443301</v>
+        <v>0.35583394964245002</v>
       </c>
       <c r="N67" s="6">
-        <v>0.39051619062076298</v>
+        <v>0.43248804071456898</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3173,40 +3176,40 @@
         <v>55</v>
       </c>
       <c r="C68" s="6">
-        <v>0.23428799477650999</v>
+        <v>0.180682781149238</v>
       </c>
       <c r="D68" s="6">
-        <v>0.55052282789801699</v>
+        <v>0.62789552883191901</v>
       </c>
       <c r="E68" s="6">
-        <v>0.82947909410613696</v>
+        <v>0.63248230092247004</v>
       </c>
       <c r="F68" s="6">
-        <v>1.0315891681372999E-3</v>
+        <v>2.3431079131437799E-3</v>
       </c>
       <c r="G68" s="6">
-        <v>0.825163875318077</v>
+        <v>0.81555656040517899</v>
       </c>
       <c r="H68" s="6">
-        <v>0.91512450891244601</v>
+        <v>0.93481180965182997</v>
       </c>
       <c r="I68" s="6">
-        <v>0.98729074657056004</v>
+        <v>0.99324017333473802</v>
       </c>
       <c r="J68" s="6">
-        <v>0.29598414301082998</v>
+        <v>0.42899231782314801</v>
       </c>
       <c r="K68" s="6">
-        <v>0.77031667361134004</v>
+        <v>0.67165014418829005</v>
       </c>
       <c r="L68" s="6">
-        <v>0.92645433448041603</v>
+        <v>0.84198285528782701</v>
       </c>
       <c r="M68" s="6">
-        <v>9.8681292981024592E-3</v>
+        <v>3.5051520076520397E-2</v>
       </c>
       <c r="N68" s="6">
-        <v>7.7249527756903403E-3</v>
+        <v>4.7639104418697398E-2</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3215,40 +3218,40 @@
         <v>56</v>
       </c>
       <c r="C69" s="6">
-        <v>6.6987541739602793E-2</v>
+        <v>0.13499989393074399</v>
       </c>
       <c r="D69" s="6">
-        <v>0.38829681047235698</v>
+        <v>0.43190510630718898</v>
       </c>
       <c r="E69" s="6">
-        <v>0.33567809757231798</v>
+        <v>0.28576123954614002</v>
       </c>
       <c r="F69" s="6">
-        <v>7.0458680069188998E-2</v>
+        <v>0.353078865377219</v>
       </c>
       <c r="G69" s="6">
-        <v>2.6364973779077899E-2</v>
+        <v>3.2703607723163899E-2</v>
       </c>
       <c r="H69" s="6">
-        <v>0.165038841587165</v>
+        <v>0.21204030995210299</v>
       </c>
       <c r="I69" s="6">
-        <v>0.112796741782659</v>
+        <v>0.10950994186320701</v>
       </c>
       <c r="J69" s="6">
-        <v>4.1743521695110898E-2</v>
+        <v>0.129518891101948</v>
       </c>
       <c r="K69" s="6">
-        <v>3.1175844275628199E-3</v>
+        <v>8.7152624838020398E-3</v>
       </c>
       <c r="L69" s="6">
-        <v>6.2842100305754905E-2</v>
+        <v>7.38873620729638E-2</v>
       </c>
       <c r="M69" s="6">
-        <v>4.6218344209922199E-2</v>
+        <v>8.3341897393544806E-2</v>
       </c>
       <c r="N69" s="6">
-        <v>2.5971388177008999E-2</v>
+        <v>0.18158827243088799</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3257,82 +3260,82 @@
         <v>57</v>
       </c>
       <c r="C70" s="6">
-        <v>3.21955914741646E-3</v>
+        <v>4.3783459841450099E-3</v>
       </c>
       <c r="D70" s="6">
-        <v>6.4640012871760799E-2</v>
+        <v>7.4071419286728002E-2</v>
       </c>
       <c r="E70" s="6">
-        <v>0.117208035019426</v>
+        <v>9.5958758566678501E-2</v>
       </c>
       <c r="F70" s="6">
-        <v>0.11101767891040901</v>
+        <v>0.141258188559335</v>
       </c>
       <c r="G70" s="6">
-        <v>2.43716563421752E-2</v>
+        <v>2.4297590233557698E-2</v>
       </c>
       <c r="H70" s="6">
-        <v>0.29533258443427701</v>
+        <v>0.38648810268043698</v>
       </c>
       <c r="I70" s="6">
-        <v>0.11932886019221101</v>
+        <v>0.11747155695504399</v>
       </c>
       <c r="J70" s="6">
-        <v>0.155393401985018</v>
+        <v>0.16233540790175</v>
       </c>
       <c r="K70" s="6">
-        <v>1.7464455502449001E-3</v>
+        <v>4.89431186331703E-3</v>
       </c>
       <c r="L70" s="6">
-        <v>0.212447420765488</v>
+        <v>0.20599921352981301</v>
       </c>
       <c r="M70" s="6">
-        <v>0.10196884607469101</v>
+        <v>0.12558878812118099</v>
       </c>
       <c r="N70" s="6">
-        <v>9.1525701838960194E-2</v>
+        <v>9.7320673899165794E-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C71" s="6">
-        <v>0.81067906470463402</v>
+        <v>0.92083448664360601</v>
       </c>
       <c r="D71" s="6">
-        <v>2.37530910175751E-4</v>
+        <v>2.7668901765124401E-4</v>
       </c>
       <c r="E71" s="6">
-        <v>8.1339007119946904E-2</v>
+        <v>0.13354094933792701</v>
       </c>
       <c r="F71" s="6">
-        <v>0.53332125491981897</v>
+        <v>0.63119913577172504</v>
       </c>
       <c r="G71" s="6">
-        <v>0.460668269064261</v>
+        <v>0.51552751667168395</v>
       </c>
       <c r="H71" s="7">
-        <v>2.7454655200795801E-6</v>
+        <v>2.5933046622334198E-6</v>
       </c>
       <c r="I71" s="6">
-        <v>1.55338764253769E-3</v>
+        <v>6.1104809581271503E-3</v>
       </c>
       <c r="J71" s="6">
-        <v>6.2477789399381003E-3</v>
+        <v>1.9685713988781099E-2</v>
       </c>
       <c r="K71" s="6">
-        <v>0.32474152612275398</v>
+        <v>0.23965090921044799</v>
       </c>
       <c r="L71" s="6">
-        <v>3.1018450775339399E-4</v>
+        <v>1.15896392597931E-3</v>
       </c>
       <c r="M71" s="6">
-        <v>0.23047416136146101</v>
+        <v>0.19161931983452901</v>
       </c>
       <c r="N71" s="6">
-        <v>0.81911718750079698</v>
+        <v>0.60813459143443604</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3381,40 +3384,40 @@
         <v>46</v>
       </c>
       <c r="C76" s="6">
-        <v>2.83502433754463E-2</v>
+        <v>2.64227551827638E-2</v>
       </c>
       <c r="D76" s="6">
-        <v>0.17511123560873901</v>
+        <v>0.132806932747915</v>
       </c>
       <c r="E76" s="6">
-        <v>3.6378340989065498E-2</v>
+        <v>1.26893102395838E-2</v>
       </c>
       <c r="F76" s="6">
-        <v>6.8373087004414699E-3</v>
+        <v>2.1143322545799099E-2</v>
       </c>
       <c r="G76" s="6">
-        <v>0.42625291795223502</v>
+        <v>0.43453653653892299</v>
       </c>
       <c r="H76" s="6">
-        <v>0.18739408589294099</v>
+        <v>0.16632432839281899</v>
       </c>
       <c r="I76" s="6">
-        <v>0.14420643374019501</v>
+        <v>8.2773085157905796E-2</v>
       </c>
       <c r="J76" s="6">
-        <v>3.8646646924861403E-2</v>
+        <v>0.101086797810091</v>
       </c>
       <c r="K76" s="6">
-        <v>0.22883614432232</v>
+        <v>0.20591032949464899</v>
       </c>
       <c r="L76" s="6">
-        <v>0.149082649293205</v>
+        <v>0.13427044705140401</v>
       </c>
       <c r="M76" s="6">
-        <v>5.1026601119461903E-2</v>
+        <v>2.1608266127978001E-2</v>
       </c>
       <c r="N76" s="6">
-        <v>9.12013835063929E-3</v>
+        <v>2.44663512257043E-2</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3423,124 +3426,124 @@
         <v>47</v>
       </c>
       <c r="C77" s="7">
-        <v>6.7676253586197597E-6</v>
+        <v>6.5647326905229596E-6</v>
       </c>
       <c r="D77" s="6">
-        <v>8.0712161548601995E-4</v>
+        <v>7.6461847116981996E-4</v>
       </c>
       <c r="E77" s="6">
-        <v>1.01762756022466E-3</v>
+        <v>2.2045620867360001E-3</v>
       </c>
       <c r="F77" s="6">
-        <v>0.10588676408283799</v>
+        <v>2.6130759787286101E-2</v>
       </c>
       <c r="G77" s="7">
-        <v>1.1787730505567101E-11</v>
+        <v>1.1979905439987E-11</v>
       </c>
       <c r="H77" s="7">
-        <v>8.0153966895790506E-8</v>
+        <v>7.6809694118164695E-8</v>
       </c>
       <c r="I77" s="7">
-        <v>2.1602364755104698E-9</v>
+        <v>6.7518631764358702E-9</v>
       </c>
       <c r="J77" s="7">
-        <v>3.3217911289842297E-5</v>
+        <v>2.95337601499189E-7</v>
       </c>
       <c r="K77" s="7">
-        <v>4.3708929463681497E-8</v>
+        <v>4.21950758257701E-8</v>
       </c>
       <c r="L77" s="7">
-        <v>3.7011936795337498E-7</v>
+        <v>3.62814496897984E-7</v>
       </c>
       <c r="M77" s="7">
-        <v>6.5660466905243804E-6</v>
+        <v>1.33171372549432E-5</v>
       </c>
       <c r="N77" s="6">
-        <v>7.4566972109701198E-3</v>
+        <v>4.69299379879757E-4</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C78" s="6">
-        <v>8.2980111969998302E-4</v>
+        <v>8.7788990425210795E-4</v>
       </c>
       <c r="D78" s="6">
-        <v>6.9858451715945694E-2</v>
+        <v>6.9328122809209206E-2</v>
       </c>
       <c r="E78" s="6">
-        <v>2.3344099924098101E-3</v>
+        <v>3.2868275491042299E-3</v>
       </c>
       <c r="F78" s="6">
-        <v>1.4023546409133399E-3</v>
+        <v>2.1221936596834299E-3</v>
       </c>
       <c r="G78" s="6">
-        <v>9.63839272641029E-2</v>
+        <v>0.10682969860023001</v>
       </c>
       <c r="H78" s="6">
-        <v>0.13768263315111101</v>
+        <v>0.14031407821619499</v>
       </c>
       <c r="I78" s="6">
-        <v>0.13689581211889101</v>
+        <v>0.182898036148679</v>
       </c>
       <c r="J78" s="6">
-        <v>0.211609040810145</v>
+        <v>0.27989583817046398</v>
       </c>
       <c r="K78" s="6">
-        <v>2.3877059499211799E-2</v>
+        <v>2.4377617466475401E-2</v>
       </c>
       <c r="L78" s="6">
-        <v>8.5298919833647194E-2</v>
+        <v>8.2774416996644506E-2</v>
       </c>
       <c r="M78" s="6">
-        <v>2.0423794880725502E-2</v>
+        <v>2.4283604415561301E-2</v>
       </c>
       <c r="N78" s="6">
-        <v>3.2754091461352101E-2</v>
+        <v>3.8342045432899999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="7">
-        <v>1.4395188477903599E-7</v>
+        <v>1.3888698605038101E-7</v>
       </c>
       <c r="D79" s="7">
-        <v>3.3244312386635899E-7</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1.0065308738305199E-4</v>
+        <v>3.1537062300419099E-7</v>
+      </c>
+      <c r="E79" s="7">
+        <v>7.3746875303754901E-5</v>
       </c>
       <c r="F79" s="6">
-        <v>3.0085145632137299E-3</v>
+        <v>2.08459592002811E-3</v>
       </c>
       <c r="G79" s="7">
-        <v>1.4515297671836201E-12</v>
+        <v>1.29555883024035E-12</v>
       </c>
       <c r="H79" s="7">
-        <v>2.8792234245236198E-9</v>
+        <v>3.9969234144357399E-9</v>
       </c>
       <c r="I79" s="7">
-        <v>1.6657424623232901E-8</v>
+        <v>4.2396290232963304E-9</v>
       </c>
       <c r="J79" s="7">
-        <v>2.3531053524206199E-7</v>
+        <v>1.3454398353069E-7</v>
       </c>
       <c r="K79" s="7">
-        <v>1.1382592559215901E-9</v>
+        <v>1.59899757878534E-9</v>
       </c>
       <c r="L79" s="7">
-        <v>4.8216003445024099E-7</v>
+        <v>4.7646081426693E-7</v>
       </c>
       <c r="M79" s="7">
-        <v>6.1783078656686905E-5</v>
+        <v>2.74144706436372E-5</v>
       </c>
       <c r="N79" s="7">
-        <v>1.2750860629852601E-4</v>
+        <v>6.26497996994553E-5</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3549,40 +3552,40 @@
         <v>48</v>
       </c>
       <c r="C80" s="7">
-        <v>4.7941085499581302E-7</v>
+        <v>5.9038941133544105E-7</v>
       </c>
       <c r="D80" s="6">
-        <v>2.23450639431031E-4</v>
+        <v>3.1951804602085599E-4</v>
       </c>
       <c r="E80" s="6">
-        <v>2.3437674960325101E-4</v>
+        <v>2.8730834000162598E-4</v>
       </c>
       <c r="F80" s="6">
-        <v>8.0371543663176198E-4</v>
+        <v>8.5905390541298301E-4</v>
       </c>
       <c r="G80" s="7">
-        <v>4.5270252607516204E-9</v>
+        <v>4.3826418442254797E-9</v>
       </c>
       <c r="H80" s="7">
-        <v>5.5614477412479097E-5</v>
+        <v>5.50958015809455E-5</v>
       </c>
       <c r="I80" s="7">
-        <v>1.30736838142518E-5</v>
+        <v>1.01988534140068E-5</v>
       </c>
       <c r="J80" s="7">
-        <v>1.2795752068445199E-5</v>
+        <v>1.1093990393831599E-5</v>
       </c>
       <c r="K80" s="7">
-        <v>4.9992474780379901E-9</v>
+        <v>4.7083160587016403E-9</v>
       </c>
       <c r="L80" s="6">
-        <v>1.6509058270155799E-4</v>
+        <v>2.1515075224573101E-4</v>
       </c>
       <c r="M80" s="6">
-        <v>2.1053690787519301E-4</v>
+        <v>2.1086340850129699E-4</v>
       </c>
       <c r="N80" s="6">
-        <v>4.5512088191095702E-4</v>
+        <v>5.0935789380397896E-4</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3591,40 +3594,40 @@
         <v>49</v>
       </c>
       <c r="C81" s="6">
-        <v>5.6420853901352902E-2</v>
+        <v>6.4775062348444004E-2</v>
       </c>
       <c r="D81" s="6">
-        <v>0.258641870674504</v>
+        <v>0.30228424290838501</v>
       </c>
       <c r="E81" s="6">
-        <v>0.24318275092750499</v>
+        <v>0.25991710411407398</v>
       </c>
       <c r="F81" s="6">
-        <v>0.202354977458512</v>
+        <v>0.20734078757917801</v>
       </c>
       <c r="G81" s="6">
-        <v>2.4841989970466001E-2</v>
+        <v>2.45026046314459E-2</v>
       </c>
       <c r="H81" s="6">
-        <v>0.35110300956022999</v>
+        <v>0.334864682361528</v>
       </c>
       <c r="I81" s="6">
-        <v>0.38683401196606998</v>
+        <v>0.35017096979463802</v>
       </c>
       <c r="J81" s="6">
-        <v>0.283739475013017</v>
+        <v>0.26609773170658202</v>
       </c>
       <c r="K81" s="6">
-        <v>1.66912725601834E-2</v>
+        <v>1.54611000086026E-2</v>
       </c>
       <c r="L81" s="6">
-        <v>0.39213440439471797</v>
+        <v>0.43554403985896201</v>
       </c>
       <c r="M81" s="6">
-        <v>0.45234124374572698</v>
+        <v>0.440688058413579</v>
       </c>
       <c r="N81" s="6">
-        <v>0.37766236323035601</v>
+        <v>0.39513481033375197</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3633,40 +3636,40 @@
         <v>50</v>
       </c>
       <c r="C82" s="7">
-        <v>2.4350868177261499E-5</v>
+        <v>3.1116825106713502E-5</v>
       </c>
       <c r="D82" s="6">
-        <v>7.3606695535417604E-4</v>
+        <v>7.1713801537447001E-4</v>
       </c>
       <c r="E82" s="6">
-        <v>2.9058662559110199E-4</v>
+        <v>7.9151397740384003E-4</v>
       </c>
       <c r="F82" s="6">
-        <v>8.8004209752613001E-4</v>
+        <v>2.6274308621022698E-3</v>
       </c>
       <c r="G82" s="7">
-        <v>8.83929224897089E-9</v>
+        <v>6.1485767913538898E-9</v>
       </c>
       <c r="H82" s="6">
-        <v>2.6571918143744301E-4</v>
+        <v>2.7677221907479601E-4</v>
       </c>
       <c r="I82" s="7">
-        <v>5.5472570439825801E-5</v>
+        <v>9.8877217342028905E-5</v>
       </c>
       <c r="J82" s="7">
-        <v>4.94678544412534E-5</v>
+        <v>8.9546925087276801E-5</v>
       </c>
       <c r="K82" s="7">
-        <v>4.8534944154462199E-7</v>
+        <v>4.5531484126627799E-7</v>
       </c>
       <c r="L82" s="6">
-        <v>9.2685125598894501E-4</v>
+        <v>1.1682581614587801E-3</v>
       </c>
       <c r="M82" s="6">
-        <v>2.32939702560699E-4</v>
+        <v>7.1765774731513601E-4</v>
       </c>
       <c r="N82" s="6">
-        <v>3.19038784374459E-4</v>
+        <v>8.0539645881769597E-4</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3675,40 +3678,40 @@
         <v>51</v>
       </c>
       <c r="C83" s="6">
-        <v>0.62212824618795504</v>
+        <v>0.67527904130815497</v>
       </c>
       <c r="D83" s="6">
-        <v>0.68141234957404195</v>
+        <v>0.66677150032445498</v>
       </c>
       <c r="E83" s="6">
-        <v>0.66264193091552603</v>
+        <v>0.71609279731173503</v>
       </c>
       <c r="F83" s="6">
-        <v>0.82615431906051495</v>
+        <v>0.93658941509948301</v>
       </c>
       <c r="G83" s="6">
-        <v>4.8369399017689003E-2</v>
+        <v>4.0405555863844499E-2</v>
       </c>
       <c r="H83" s="6">
-        <v>0.59800700692656705</v>
+        <v>0.60342390161786397</v>
       </c>
       <c r="I83" s="6">
-        <v>0.53122600459381197</v>
+        <v>0.490380613260262</v>
       </c>
       <c r="J83" s="6">
-        <v>0.43043424578778999</v>
+        <v>0.39831666068856603</v>
       </c>
       <c r="K83" s="6">
-        <v>0.21995736280363401</v>
+        <v>0.21836853116044699</v>
       </c>
       <c r="L83" s="6">
-        <v>0.87335514394131097</v>
+        <v>0.88655506619814795</v>
       </c>
       <c r="M83" s="6">
-        <v>0.81768355862646602</v>
+        <v>0.89293061717336397</v>
       </c>
       <c r="N83" s="6">
-        <v>0.60907197761384901</v>
+        <v>0.66025571795118598</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3882,7 +3885,7 @@
     <row r="88" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" s="6">
         <v>2E-3</v>
@@ -3927,40 +3930,40 @@
         <v>54</v>
       </c>
       <c r="C89" s="6">
-        <v>0.66500763015668896</v>
+        <v>0.62841177066786102</v>
       </c>
       <c r="D89" s="6">
-        <v>0.17050792891611899</v>
+        <v>0.114718072217272</v>
       </c>
       <c r="E89" s="6">
-        <v>1.2007273894476001E-2</v>
+        <v>1.5510146073842801E-2</v>
       </c>
       <c r="F89" s="6">
-        <v>3.1144638235329298E-3</v>
+        <v>1.2551937899349401E-3</v>
       </c>
       <c r="G89" s="6">
-        <v>9.5293587139038599E-2</v>
+        <v>0.104112815741032</v>
       </c>
       <c r="H89" s="6">
-        <v>0.14350350785523999</v>
+        <v>2.7507174210827198E-2</v>
       </c>
       <c r="I89" s="6">
-        <v>1.09084818166469E-4</v>
+        <v>2.66960198102485E-4</v>
       </c>
       <c r="J89" s="6">
-        <v>8.8838596787719395E-2</v>
+        <v>0.102435715816421</v>
       </c>
       <c r="K89" s="6">
-        <v>0.84014546261631595</v>
+        <v>0.79378646085537097</v>
       </c>
       <c r="L89" s="6">
-        <v>5.5689880120145599E-2</v>
+        <v>0.101791134000769</v>
       </c>
       <c r="M89" s="7">
-        <v>1.4506839403817199E-3</v>
-      </c>
-      <c r="N89" s="6">
-        <v>3.4874089170865998E-3</v>
+        <v>1.01253118332718E-2</v>
+      </c>
+      <c r="N89" s="7">
+        <v>3.04084365348342E-4</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3969,40 +3972,40 @@
         <v>55</v>
       </c>
       <c r="C90" s="6">
-        <v>0.53844192523256496</v>
+        <v>0.502446144295147</v>
       </c>
       <c r="D90" s="6">
-        <v>4.6951924269357299E-2</v>
+        <v>2.8807406683641699E-2</v>
       </c>
       <c r="E90" s="7">
-        <v>3.5880769831435397E-5</v>
+        <v>3.3421113672551397E-5</v>
       </c>
       <c r="F90" s="6">
-        <v>0.35658280361672701</v>
+        <v>0.276429836712548</v>
       </c>
       <c r="G90" s="6">
-        <v>0.94587068143895903</v>
+        <v>0.937070389176201</v>
       </c>
       <c r="H90" s="6">
-        <v>0.70186100744595104</v>
+        <v>0.86214147026284305</v>
       </c>
       <c r="I90" s="6">
-        <v>8.7584854081481397E-4</v>
+        <v>9.7627784123762405E-4</v>
       </c>
       <c r="J90" s="6">
-        <v>4.67521279774831E-4</v>
+        <v>9.4066555018166404E-4</v>
       </c>
       <c r="K90" s="6">
-        <v>0.54687019030946205</v>
+        <v>0.42679207424129301</v>
       </c>
       <c r="L90" s="6">
-        <v>0.38160695161525199</v>
-      </c>
-      <c r="M90" s="6">
-        <v>6.5765778084949798E-4</v>
+        <v>0.56074275852789701</v>
+      </c>
+      <c r="M90" s="7">
+        <v>2.9666606071889199E-5</v>
       </c>
       <c r="N90" s="6">
-        <v>1.8589991081597201E-2</v>
+        <v>7.8685420439943296E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4011,40 +4014,40 @@
         <v>56</v>
       </c>
       <c r="C91" s="6">
-        <v>7.1319635237193798E-4</v>
+        <v>6.4078469007488605E-4</v>
       </c>
       <c r="D91" s="6">
-        <v>1.07832293463594E-2</v>
+        <v>9.8849189141495195E-3</v>
       </c>
       <c r="E91" s="6">
-        <v>7.2648137605097293E-2</v>
+        <v>4.6467366888088203E-2</v>
       </c>
       <c r="F91" s="6">
-        <v>9.5476800637053605E-2</v>
+        <v>6.8537837369011298E-2</v>
       </c>
       <c r="G91" s="6">
-        <v>3.12973940437961E-3</v>
+        <v>2.9982821834375101E-3</v>
       </c>
       <c r="H91" s="6">
-        <v>0.140843934140852</v>
+        <v>0.115326851036089</v>
       </c>
       <c r="I91" s="6">
-        <v>0.24314283333933501</v>
+        <v>0.22722604868170401</v>
       </c>
       <c r="J91" s="6">
-        <v>0.64191918970601103</v>
+        <v>0.68720094577972701</v>
       </c>
       <c r="K91" s="7">
-        <v>2.33821975513205E-6</v>
+        <v>2.4017627695167201E-6</v>
       </c>
       <c r="L91" s="6">
-        <v>3.0862575274647102E-3</v>
+        <v>4.8982255063446997E-3</v>
       </c>
       <c r="M91" s="6">
-        <v>3.3525824660895001E-3</v>
+        <v>4.3411908071607696E-3</v>
       </c>
       <c r="N91" s="6">
-        <v>1.50843848529056E-2</v>
+        <v>2.0171094892637301E-2</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4053,82 +4056,82 @@
         <v>57</v>
       </c>
       <c r="C92" s="7">
-        <v>2.3129532692443001E-8</v>
+        <v>1.6865702598204801E-8</v>
       </c>
       <c r="D92" s="6">
-        <v>3.0739808241843E-4</v>
+        <v>3.4078643917005897E-4</v>
       </c>
       <c r="E92" s="6">
-        <v>6.1839288684824095E-4</v>
+        <v>3.8069484224623201E-4</v>
       </c>
       <c r="F92" s="6">
-        <v>2.80213302450708E-3</v>
+        <v>2.2957164868407801E-3</v>
       </c>
       <c r="G92" s="7">
-        <v>7.6581559517566004E-5</v>
+        <v>7.06592125270951E-5</v>
       </c>
       <c r="H92" s="6">
-        <v>0.31882539761567003</v>
+        <v>0.31539768381387201</v>
       </c>
       <c r="I92" s="6">
-        <v>8.5825341272028094E-2</v>
+        <v>6.8089681854731701E-2</v>
       </c>
       <c r="J92" s="6">
-        <v>0.25586722811210899</v>
+        <v>0.27668892921385102</v>
       </c>
       <c r="K92" s="7">
-        <v>1.1519254730729701E-8</v>
+        <v>4.2191761733611599E-9</v>
       </c>
       <c r="L92" s="6">
-        <v>4.5423357115727397E-2</v>
+        <v>3.7871743692090801E-2</v>
       </c>
       <c r="M92" s="6">
-        <v>1.45323450379602E-3</v>
+        <v>8.9754030627605904E-4</v>
       </c>
       <c r="N92" s="6">
-        <v>9.1303752180435394E-3</v>
+        <v>8.1796253146508794E-3</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C93" s="6">
-        <v>0.95954934151023596</v>
+        <v>0.88480335788291697</v>
       </c>
       <c r="D93" s="6">
-        <v>0.247992008289109</v>
+        <v>0.26936918055193299</v>
       </c>
       <c r="E93" s="6">
-        <v>0.136889992838548</v>
+        <v>0.16153703336708</v>
       </c>
       <c r="F93" s="6">
-        <v>0.85046110253033003</v>
+        <v>0.76976664070170697</v>
       </c>
       <c r="G93" s="6">
-        <v>0.227519430640687</v>
+        <v>0.17121444016735299</v>
       </c>
       <c r="H93" s="7">
-        <v>4.9791515997536398E-5</v>
+        <v>2.7107676660031402E-4</v>
       </c>
       <c r="I93" s="7">
-        <v>4.7623800760665602E-5</v>
+        <v>3.1345849829054302E-5</v>
       </c>
       <c r="J93" s="7">
-        <v>1.0629510209621E-3</v>
+        <v>1.78764425195792E-4</v>
       </c>
       <c r="K93" s="6">
-        <v>0.93216697043045604</v>
+        <v>0.86619842780142897</v>
       </c>
       <c r="L93" s="6">
-        <v>0.18214536391181901</v>
+        <v>0.14334120027665401</v>
       </c>
       <c r="M93" s="6">
-        <v>0.26882003433039298</v>
+        <v>0.284939062767537</v>
       </c>
       <c r="N93" s="6">
-        <v>0.42632886205827503</v>
+        <v>0.43133423374942498</v>
       </c>
     </row>
   </sheetData>
